--- a/xlsx/画像情報.xlsx
+++ b/xlsx/画像情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\Colab Notebooks\uriba_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4510AEB-BF96-48C2-AEFE-65231F082AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD7EE8-0FCA-4044-928B-BC3CC558F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -83,30 +83,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大川_東浦和店</t>
-    <rPh sb="0" eb="2">
-      <t>オオカワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ウラワテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グリーン系</t>
+    <t>ファイル名</t>
     <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナチュラル系</t>
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2757_comp.jpg</t>
+  </si>
+  <si>
+    <t>TIF杉戸店</t>
+    <rPh sb="3" eb="5">
+      <t>スギト</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>ケイ</t>
-    </rPh>
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2756_comp.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナチュラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリーン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -124,14 +129,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IMG_2756_comp.jpg</t>
+    <t>ブラウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD別</t>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リビング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイブルBU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8A0C0-568C-42D8-A04C-713A9418022C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -507,10 +528,11 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,36 +546,68 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/画像情報.xlsx
+++ b/xlsx/画像情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\Colab Notebooks\uriba_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD7EE8-0FCA-4044-928B-BC3CC558F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F62B5-C6AB-4A9E-ABE9-E3FD6F3AFD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -90,9 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IMG_2757_comp.jpg</t>
-  </si>
-  <si>
     <t>TIF杉戸店</t>
     <rPh sb="3" eb="5">
       <t>スギト</t>
@@ -103,10 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IMG_2756_comp.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナチュラル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -153,6 +146,229 @@
   </si>
   <si>
     <t>セイブルBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイブルDGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレントIV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当なし</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレントBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレントRE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大川東浦和店</t>
+    <rPh sb="0" eb="2">
+      <t>オオカワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウラワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2756.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2757.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2758.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2759.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2760.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2761.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2762.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2763.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2764.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2765.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2766.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2767.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2768.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2769.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2770.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2771.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2772.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2773.jpg</t>
+  </si>
+  <si>
+    <t>中間色</t>
+    <rPh sb="0" eb="3">
+      <t>チュウカンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナギDBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2193.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2194.jpg</t>
+  </si>
+  <si>
+    <t>ノハラBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベガスDGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2195.jpg</t>
+  </si>
+  <si>
+    <t>FX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガウチョDGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2196.jpg</t>
+  </si>
+  <si>
+    <t>全景</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2197.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2696.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -177,12 +393,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,8 +427,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8A0C0-568C-42D8-A04C-713A9418022C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -528,8 +763,9 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -546,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -560,54 +796,990 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/画像情報.xlsx
+++ b/xlsx/画像情報.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\Colab Notebooks\uriba_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\uriba_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F62B5-C6AB-4A9E-ABE9-E3FD6F3AFD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE6A60-222F-42EE-A764-529BB109148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="161">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -236,6 +236,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>グレー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -369,6 +377,335 @@
   </si>
   <si>
     <t>AK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2697.jpg</t>
+  </si>
+  <si>
+    <t>しかけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2708.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2709.jpg</t>
+  </si>
+  <si>
+    <t>ウッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シエスタG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2710.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2711.jpg</t>
+  </si>
+  <si>
+    <t>WK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハウゼンNV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2712.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2713.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2714.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2715.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2716.jpg</t>
+  </si>
+  <si>
+    <t>IMG_20230209_184303.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184331.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184413.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184358.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガウチョGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184426.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184545.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_20230209_184639.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家具のホンダ</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2162.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルームBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネイビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_2.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_3.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_4.jpg</t>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_5.jpg</t>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_6.jpg</t>
+  </si>
+  <si>
+    <t>UW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LINE_ALBUM_家具のホンダ高前バイパス_230731_7.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2389.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2390.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2391.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2392.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2393.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2394.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2395.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2396.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2397.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2398.jpeg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIF入間店</t>
+    <rPh sb="3" eb="6">
+      <t>イルマテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレントBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイブルBU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リビング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレントIV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当なし</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セイブルDGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2429.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2430.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2433.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2434.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2435.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2436.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2437.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2438.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2439.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2440.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2441.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2442.jpg</t>
+  </si>
+  <si>
+    <t>IMG_2431.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2432.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,9 +792,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -495,7 +832,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -601,7 +938,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -743,7 +1080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,24 +1088,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8A0C0-568C-42D8-A04C-713A9418022C}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39:G39"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -817,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -843,10 +1180,10 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -869,10 +1206,10 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -895,10 +1232,10 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -921,10 +1258,10 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -947,10 +1284,10 @@
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -973,10 +1310,10 @@
         <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -999,10 +1336,10 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1025,10 +1362,10 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1051,10 +1388,10 @@
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1077,10 +1414,10 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1103,10 +1440,10 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1129,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1155,10 +1492,10 @@
         <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1181,10 +1518,10 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1207,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1233,10 +1570,10 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1259,10 +1596,10 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1285,10 +1622,10 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1311,10 +1648,10 @@
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1337,10 +1674,10 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1363,10 +1700,10 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1374,25 +1711,25 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1400,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
@@ -1415,140 +1752,140 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1556,25 +1893,25 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>63</v>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1582,25 +1919,25 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1608,25 +1945,25 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1634,25 +1971,25 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1660,25 +1997,25 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1686,25 +2023,25 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1712,10 +2049,10 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1723,14 +2060,14 @@
       <c r="F37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>58</v>
+      <c r="G37" t="s">
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1738,10 +2075,10 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1749,14 +2086,14 @@
       <c r="F38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G38" t="s">
-        <v>25</v>
+      <c r="G38" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1764,10 +2101,10 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1779,7 +2116,1593 @@
         <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/画像情報.xlsx
+++ b/xlsx/画像情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\uriba_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\マイドライブ\Colab Notebooks\uriba_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE6A60-222F-42EE-A764-529BB109148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84ED9C0-8B85-482B-915A-98BBC53F5EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C938F12E-7194-4041-8FEF-BF053ADF2CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="181">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -706,6 +706,112 @@
   </si>
   <si>
     <t>IMG_2432.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹上ホール2023_12</t>
+    <rPh sb="0" eb="2">
+      <t>フキアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベージュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC_0339.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹上ホール2023_13</t>
+    <rPh sb="0" eb="2">
+      <t>フキアゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コモレビBE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確認</t>
+    <rPh sb="0" eb="3">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC_0341.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC_0343.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC_0346.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新宿ベルサール2023_11</t>
+    <rPh sb="0" eb="2">
+      <t>シンジュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピリットBE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2622.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽量挽板</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2628.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMG_2629.jpg</t>
+  </si>
+  <si>
+    <t>新宿①.jpg</t>
+    <rPh sb="0" eb="2">
+      <t>シンジュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新宿②.jpg</t>
+    <rPh sb="0" eb="2">
+      <t>シンジュク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -792,9 +898,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -832,7 +938,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -938,7 +1044,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1080,7 +1186,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,24 +1194,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F8A0C0-568C-42D8-A04C-713A9418022C}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1599,7 +1705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1703,7 +1809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1781,7 +1887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +2017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1937,7 +2043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1963,7 +2069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +2095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2015,7 +2121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2067,7 +2173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -2119,7 +2225,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2171,7 +2277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -2197,7 +2303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2223,7 +2329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2249,7 +2355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2301,7 +2407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2327,7 +2433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2353,7 +2459,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2379,7 +2485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2405,7 +2511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2431,7 +2537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2563,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2589,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -2535,7 +2641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -2561,7 +2667,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2693,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -2613,7 +2719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -2665,7 +2771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -2691,7 +2797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -2717,7 +2823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -2743,7 +2849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>101</v>
       </c>
@@ -2769,7 +2875,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -2795,7 +2901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -2821,7 +2927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -2847,7 +2953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2873,7 +2979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -2899,7 +3005,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>101</v>
       </c>
@@ -2925,7 +3031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -2951,7 +3057,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -2977,7 +3083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -3003,7 +3109,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -3029,7 +3135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -3055,7 +3161,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -3081,7 +3187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -3107,7 +3213,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -3133,7 +3239,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -3159,7 +3265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>101</v>
       </c>
@@ -3185,7 +3291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -3211,7 +3317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -3237,7 +3343,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3263,7 +3369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -3289,7 +3395,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -3315,7 +3421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>126</v>
       </c>
@@ -3341,7 +3447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -3367,7 +3473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -3393,7 +3499,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -3419,7 +3525,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -3445,7 +3551,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -3471,7 +3577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -3497,7 +3603,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -3523,7 +3629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -3549,7 +3655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -3575,7 +3681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -3601,7 +3707,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -3627,7 +3733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -3653,7 +3759,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -3679,7 +3785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -3703,6 +3809,318 @@
       </c>
       <c r="H100" s="2" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" t="s">
+        <v>75</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="s">
+        <v>176</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
